--- a/branches/hiv-test-date_fig-20/StructureDefinition-art-regimen-line.xlsx
+++ b/branches/hiv-test-date_fig-20/StructureDefinition-art-regimen-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:53:42+00:00</t>
+    <t>2023-02-10T13:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
